--- a/biology/Botanique/Parc_Bartholdi/Parc_Bartholdi.xlsx
+++ b/biology/Botanique/Parc_Bartholdi/Parc_Bartholdi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carte interactive localisant le parc Bartholdi
-Le parc Bartholdi (ou Bartholdi Park) est un parc public de Washington nommé en l'honneur du sculpteur français Frédéric Auguste Bartholdi. Il est situé à l'angle d'Independence Avenue et Washington Avenue. Le parc Bartholdi fait partie du Jardin botanique des États-Unis situé sur les terrains du Capitole à Washington[1].
-Le parc Bartholdi a été créé comme une exclave du Jardin botanique des États-Unis en 1932, après qu'on eut changé son emplacement d'origine qui se trouvait à la base du Capitole en 1927. Initialement créé comme une vitrine pour l'horticulture américaine, le parc a conservé cette vocation. Les jardins ont été continuellement remaniés pour refléter l'horticulture américaine moderne et permettre l'ajout de nouvelles plantes. En 1985, le parc a été rebaptisé Bartholdi Park. Au centre de cet espace vert se trouve la fontaine Bartholdi. Récemment, le parc fait l'objet d'une refonte pour procéder à l'ajout d'un jardin de démonstration[2]. 
+Le parc Bartholdi (ou Bartholdi Park) est un parc public de Washington nommé en l'honneur du sculpteur français Frédéric Auguste Bartholdi. Il est situé à l'angle d'Independence Avenue et Washington Avenue. Le parc Bartholdi fait partie du Jardin botanique des États-Unis situé sur les terrains du Capitole à Washington.
+Le parc Bartholdi a été créé comme une exclave du Jardin botanique des États-Unis en 1932, après qu'on eut changé son emplacement d'origine qui se trouvait à la base du Capitole en 1927. Initialement créé comme une vitrine pour l'horticulture américaine, le parc a conservé cette vocation. Les jardins ont été continuellement remaniés pour refléter l'horticulture américaine moderne et permettre l'ajout de nouvelles plantes. En 1985, le parc a été rebaptisé Bartholdi Park. Au centre de cet espace vert se trouve la fontaine Bartholdi. Récemment, le parc fait l'objet d'une refonte pour procéder à l'ajout d'un jardin de démonstration. 
 Parmi les plantes qui y sont présentes, les visiteurs peuvent admirer Echinacea paradoxa (en), Gelsemium sempervirens, Paeonia obovata, Loropetalum chinense, Bergenia cordifolia (en), Helleborus ×hybridus, Hamamelis ×intermedia (en), Hydrangea quercifolia, Yucca treculeana (en), l'anémone de même qu'Asclepias curassavica.
 	Galerie
 			Vue du parc.
